--- a/Calc-metered-vs-unlimited.xlsx
+++ b/Calc-metered-vs-unlimited.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brashle\OneDrive - Microsoft\Reference\ExpressRoute\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{4AA3856B-F493-499F-BC06-4285F13AA178}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{2545B53E-F295-4A39-BD59-458E28175DF7}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{4AA3856B-F493-499F-BC06-4285F13AA178}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{D01BA102-8A20-4DE8-815B-D3F123B4D829}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{159DF876-BA11-41AD-BDA4-9E95E3F271E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Region</t>
   </si>
@@ -106,6 +107,9 @@
   </si>
   <si>
     <t>3. Pricing will update automatically for Metered vs Unlimited based on usage</t>
+  </si>
+  <si>
+    <t>ExpressRoute Calculator: Unlimited vs Metered</t>
   </si>
 </sst>
 </file>
@@ -117,7 +121,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +132,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -292,6 +304,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{844220A9-9574-44F8-8ED7-4E3956CFCC93}" name="Table2" displayName="Table2" ref="D4:F20" totalsRowShown="0">
-  <autoFilter ref="D4:F20" xr:uid="{CCECAA20-7D6B-4D05-87FC-19A5739DC71F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{844220A9-9574-44F8-8ED7-4E3956CFCC93}" name="Table2" displayName="Table2" ref="D1:F17" totalsRowShown="0">
+  <autoFilter ref="D1:F17" xr:uid="{CCECAA20-7D6B-4D05-87FC-19A5739DC71F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{027A182A-E5EA-4E32-898F-1257DAA01D5A}" name="Bandwidth"/>
     <tableColumn id="2" xr3:uid="{C8941659-0929-4D0A-9328-6E7BEAF360EE}" name="Standard" dataDxfId="3"/>
@@ -338,8 +351,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BD27BD6D-E40F-44E0-9DBD-CEDDC0639430}" name="Table3" displayName="Table3" ref="H4:I7" totalsRowShown="0">
-  <autoFilter ref="H4:I7" xr:uid="{4472B8FF-F32E-4039-AA7C-CF462EAC4231}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BD27BD6D-E40F-44E0-9DBD-CEDDC0639430}" name="Table3" displayName="Table3" ref="H1:I4" totalsRowShown="0">
+  <autoFilter ref="H1:I4" xr:uid="{4472B8FF-F32E-4039-AA7C-CF462EAC4231}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2BA1C41A-7771-42C8-8F65-28791BF8ACC4}" name="Metered Outbound Zone" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{5A557A55-1C95-486F-880C-EB1A9B7FEC2C}" name="GB Charge" dataDxfId="0"/>
@@ -645,493 +658,555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD943217-F65D-4D62-ABF4-9FC95570CFD2}">
-  <dimension ref="A4:N30"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2628000</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13">
+        <f>C10*C12</f>
+        <v>3153600000</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="13">
+        <f>C13/8</f>
+        <v>394200000</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13">
+        <f>C14/1000</f>
+        <v>394200</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14">
+        <f>C15*(VLOOKUP(C11,Table3[],2,FALSE))</f>
+        <v>9855</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="14">
+        <f>VLOOKUP(C9,Sheet2!D2:F9,2,FALSE)</f>
+        <v>872</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="14">
+        <f>VLOOKUP(C9,Sheet2!D2:F9,3,FALSE)</f>
+        <v>2372</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
-        <v>55</v>
-      </c>
-      <c r="F5" s="3">
-        <v>130</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6" s="3">
-        <v>110</v>
-      </c>
-      <c r="F6" s="3">
-        <v>200</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-      <c r="E7" s="3">
-        <v>145</v>
-      </c>
-      <c r="F7" s="3">
-        <v>295</v>
-      </c>
-      <c r="H7" s="5">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="10">
-        <v>650</v>
-      </c>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>290</v>
-      </c>
-      <c r="F8" s="3">
-        <v>690</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>436</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1186</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="13">
-        <v>2628000</v>
-      </c>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>2000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>872</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2372</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="13">
-        <f>L7*L9</f>
-        <v>1708200000</v>
-      </c>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2180</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5180</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="13">
-        <f>L10/8</f>
-        <v>213525000</v>
-      </c>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6400</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="13">
-        <f>L11/1000</f>
-        <v>213525</v>
-      </c>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>300</v>
-      </c>
-      <c r="F13" s="3">
-        <v>375</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="14">
-        <f>L12*(VLOOKUP(L8,Table3[],2,FALSE))</f>
-        <v>5338.125</v>
-      </c>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3">
-        <v>575</v>
-      </c>
-      <c r="F14" s="3">
-        <v>675</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="14">
-        <f>VLOOKUP(L6,D5:F12,2,FALSE)</f>
-        <v>436</v>
-      </c>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1150</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="14">
-        <f>VLOOKUP(L6,D5:F12,3,FALSE)</f>
-        <v>1186</v>
-      </c>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>500</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2750</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3150</v>
-      </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6450</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="3">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="18">
+        <f>(C15*Sheet2!I2) + C17</f>
+        <v>10727</v>
+      </c>
+      <c r="D22" s="19">
+        <f>(C15*Sheet2!I2) + C18</f>
+        <v>12227</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="21">
+        <f>VLOOKUP(C9,Sheet2!D10:F17,2,FALSE)</f>
         <v>11400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="D23" s="22">
+        <f>VLOOKUP(C9,Sheet2!D10:F17,3,FALSE)</f>
         <v>12900</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>5000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>25650</v>
-      </c>
-      <c r="F19" s="3">
-        <v>28650</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="18">
-        <f>(L12*I5) + L14</f>
-        <v>5774.125</v>
-      </c>
-      <c r="M19" s="19">
-        <f>(L12*I5) + L15</f>
-        <v>6524.125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>10000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>51300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>54300</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="21">
-        <f>VLOOKUP(L6,D13:F20,2,FALSE)</f>
-        <v>5700</v>
-      </c>
-      <c r="M20" s="22">
-        <f>VLOOKUP(L6,D13:F20,3,FALSE)</f>
-        <v>6450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K30" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TbWe43Ugfr0xVMa0fwj9DjVp7eUc3qmbOGCs22GnBKrPclIs9/dp6hoXRPamS3GQM5HgDo8oVDELzZnuUlIydA==" saltValue="BLHdEnf1fDipyd/EqArfOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6" xr:uid="{32977023-9553-4E8E-8A90-615D8852C819}">
-      <formula1>$D$5:$D$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8" xr:uid="{0C898C72-613E-497F-BFDD-887EB680F03F}">
-      <formula1>$H$5:$H$7</formula1>
-    </dataValidation>
-  </dataValidations>
+  <sheetProtection algorithmName="SHA-512" hashValue="lvOJWCNEGCLJXmsd9tcb5pAwVNkQw9VFSOCfeFRoWvBxWPHJGFz/wo+/ayVRuVvjMnqjPIqAtKsutrd0dISVqg==" saltValue="ZvWdm7hhFkPGsW5PIJcMMg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32977023-9553-4E8E-8A90-615D8852C819}">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$2:$D$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C898C72-613E-497F-BFDD-887EB680F03F}">
+          <x14:formula1>
+            <xm:f>Sheet2!$H$2:$H$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250E1CD1-78D3-41C2-B406-9DF2B468E6DD}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3">
+        <v>130</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>110</v>
+      </c>
+      <c r="F3" s="3">
+        <v>200</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>145</v>
+      </c>
+      <c r="F4" s="3">
+        <v>295</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5" s="3">
+        <v>290</v>
+      </c>
+      <c r="F5" s="3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>436</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>872</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2180</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>575</v>
+      </c>
+      <c r="F11" s="3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1150</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2750</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25650</v>
+      </c>
+      <c r="F16" s="3">
+        <v>28650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>54300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>